--- a/reports/report_simple_mobility.xlsx
+++ b/reports/report_simple_mobility.xlsx
@@ -12153,7 +12153,7 @@
         <v>44895</v>
       </c>
       <c r="G13" t="n">
-        <v>1722163.38199264</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>230262.1536219119</v>
@@ -12240,7 +12240,7 @@
         <v>197100</v>
       </c>
       <c r="G16" t="n">
-        <v>5697460.481131786</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>532833.5397787284</v>
@@ -12692,7 +12692,7 @@
         <v>27375</v>
       </c>
       <c r="G32" t="n">
-        <v>1062693.108312975</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>142006.8596376239</v>
@@ -12779,7 +12779,7 @@
         <v>81030</v>
       </c>
       <c r="G35" t="n">
-        <v>2726413.948724865</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>355584.4916353793</v>
@@ -13318,7 +13318,7 @@
         <v>269917.5</v>
       </c>
       <c r="G54" t="n">
-        <v>12145225.4728766</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>1578350.690082069</v>
@@ -13596,7 +13596,7 @@
         <v>248017.5</v>
       </c>
       <c r="G64" t="n">
-        <v>10701509.85357447</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>1406237.876649738</v>
@@ -13770,7 +13770,7 @@
         <v>38325</v>
       </c>
       <c r="G70" t="n">
-        <v>1351159.640516794</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>179274.1401225057</v>
@@ -13903,7 +13903,7 @@
         <v>125925</v>
       </c>
       <c r="G75" t="n">
-        <v>3902972.000970914</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>470907.2126041031</v>
@@ -13990,7 +13990,7 @@
         <v>68437.5</v>
       </c>
       <c r="G78" t="n">
-        <v>2494363.128826015</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>332902.4098482695</v>
@@ -14338,7 +14338,7 @@
         <v>107310</v>
       </c>
       <c r="G90" t="n">
-        <v>4304704.895975661</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>573431.3834941911</v>
@@ -14715,7 +14715,7 @@
         <v>68437.5</v>
       </c>
       <c r="G103" t="n">
-        <v>3057387.863952614</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>398138.6389414876</v>
@@ -15469,7 +15469,7 @@
         <v>46428</v>
       </c>
       <c r="G129" t="n">
-        <v>2154306.065702762</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
         <v>277366.3016868735</v>
@@ -15614,7 +15614,7 @@
         <v>32850</v>
       </c>
       <c r="G134" t="n">
-        <v>1405088.203173005</v>
+        <v>0</v>
       </c>
       <c r="H134" t="n">
         <v>185013.9681384852</v>
@@ -15672,7 +15672,7 @@
         <v>36135</v>
       </c>
       <c r="G136" t="n">
-        <v>1066450.968155988</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
         <v>113298.0061710949</v>
@@ -15730,7 +15730,7 @@
         <v>143445</v>
       </c>
       <c r="G138" t="n">
-        <v>6524863.743328296</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
         <v>845252.2620194291</v>
@@ -15834,7 +15834,7 @@
         <v>99645</v>
       </c>
       <c r="G142" t="n">
-        <v>4242670.831346928</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>559225.3893804963</v>
@@ -15863,7 +15863,7 @@
         <v>269917.5</v>
       </c>
       <c r="G143" t="n">
-        <v>12394773.52409347</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>1601037.15362958</v>
@@ -57776,7 +57776,7 @@
         <v>3697</v>
       </c>
       <c r="B1" t="n">
-        <v>0.02274242961860672</v>
+        <v>0.02084323200249852</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -57784,7 +57784,7 @@
         <v>3698</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003707378136753396</v>
+        <v>0.001808180520645191</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -57824,7 +57824,7 @@
         <v>3703</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01953253192033191</v>
+        <v>0.0182993588634116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -57832,7 +57832,7 @@
         <v>3704</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02123016491275814</v>
+        <v>0.01999699185583783</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/reports/report_simple_mobility.xlsx
+++ b/reports/report_simple_mobility.xlsx
@@ -11494,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3896430</v>
+        <v>4192170</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11518,7 +11518,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>42853073758.30016</v>
+        <v>43109504611.72208</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11542,7 +11542,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2060943.107500001</v>
+        <v>2152624.2075</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11550,7 +11550,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1648754.485999999</v>
+        <v>1722099.365999999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11606,7 +11606,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1158</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11614,7 +11614,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>71189.7446459413</v>
+        <v>70118.0523615635</v>
       </c>
     </row>
   </sheetData>
@@ -11646,7 +11646,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>611074080</v>
+        <v>674039160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11670,7 +11670,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>70052426.62017234</v>
+        <v>70274544.04208615</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11694,7 +11694,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>46483232.92749996</v>
+        <v>49776483.22749995</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11702,7 +11702,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37186586.34199996</v>
+        <v>39821186.58199997</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11758,7 +11758,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>80114</v>
+        <v>88058</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11766,7 +11766,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23208.54428813938</v>
+        <v>22610.77164028252</v>
       </c>
     </row>
   </sheetData>
@@ -11854,22 +11854,22 @@
         <v>58.2</v>
       </c>
       <c r="D3" t="n">
-        <v>8810473.305185093</v>
+        <v>10490800.64558886</v>
       </c>
       <c r="E3" t="n">
-        <v>1818886.694814908</v>
+        <v>1820104.954411143</v>
       </c>
       <c r="F3" t="n">
         <v>31864.5</v>
       </c>
       <c r="G3" t="n">
-        <v>8120057.236579944</v>
+        <v>9483042.012005283</v>
       </c>
       <c r="H3" t="n">
-        <v>397094.1713341071</v>
+        <v>419331.2941914995</v>
       </c>
       <c r="I3" t="n">
-        <v>866441014.434256</v>
+        <v>1030112345.6526</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11912,22 +11912,22 @@
         <v>55.6</v>
       </c>
       <c r="D5" t="n">
-        <v>3350029.109192715</v>
+        <v>3571647.610781251</v>
       </c>
       <c r="E5" t="n">
-        <v>2312578.890807285</v>
+        <v>2507197.189218748</v>
       </c>
       <c r="F5" t="n">
         <v>30441</v>
       </c>
       <c r="G5" t="n">
-        <v>3544022.193034791</v>
+        <v>3722807.381388039</v>
       </c>
       <c r="H5" t="n">
-        <v>284220.8201025378</v>
+        <v>289740.7462904056</v>
       </c>
       <c r="I5" t="n">
-        <v>321790229.4658262</v>
+        <v>343259295.2305314</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11970,22 +11970,22 @@
         <v>208</v>
       </c>
       <c r="D7" t="n">
-        <v>3484992.76279058</v>
+        <v>3641674.569561816</v>
       </c>
       <c r="E7" t="n">
-        <v>963378.4372094206</v>
+        <v>963743.0304381842</v>
       </c>
       <c r="F7" t="n">
         <v>113880</v>
       </c>
       <c r="G7" t="n">
-        <v>13466413.68975924</v>
+        <v>13920657.05103959</v>
       </c>
       <c r="H7" t="n">
-        <v>1069792.374983654</v>
+        <v>1083728.831922339</v>
       </c>
       <c r="I7" t="n">
-        <v>1228820989.101179</v>
+        <v>1283367904.795559</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -12115,22 +12115,22 @@
         <v>68</v>
       </c>
       <c r="D12" t="n">
-        <v>4329064.952286403</v>
+        <v>5343308.432823076</v>
       </c>
       <c r="E12" t="n">
-        <v>1756163.847713598</v>
+        <v>2007229.167176925</v>
       </c>
       <c r="F12" t="n">
         <v>37230</v>
       </c>
       <c r="G12" t="n">
-        <v>5237564.773896821</v>
+        <v>6209892.641080891</v>
       </c>
       <c r="H12" t="n">
-        <v>373890.1611336893</v>
+        <v>398390.2541830388</v>
       </c>
       <c r="I12" t="n">
-        <v>502009274.3480203</v>
+        <v>618769343.3319508</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -12173,22 +12173,22 @@
         <v>110</v>
       </c>
       <c r="D14" t="n">
-        <v>4227103.274870713</v>
+        <v>4331993.274870713</v>
       </c>
       <c r="E14" t="n">
-        <v>3114496.725129286</v>
+        <v>3142393.925129286</v>
       </c>
       <c r="F14" t="n">
         <v>60225.00000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>8413673.250231706</v>
+        <v>8576474.7623877</v>
       </c>
       <c r="H14" t="n">
-        <v>603229.9041167076</v>
+        <v>607613.0424835361</v>
       </c>
       <c r="I14" t="n">
-        <v>805005979.4237418</v>
+        <v>824555677.0427895</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -12202,22 +12202,22 @@
         <v>185</v>
       </c>
       <c r="D15" t="n">
-        <v>2132226.023519297</v>
+        <v>2446127.097506769</v>
       </c>
       <c r="E15" t="n">
-        <v>4342426.776480704</v>
+        <v>4343895.30249323</v>
       </c>
       <c r="F15" t="n">
         <v>101287.5</v>
       </c>
       <c r="G15" t="n">
-        <v>8897238.97684912</v>
+        <v>9706742.96932292</v>
       </c>
       <c r="H15" t="n">
-        <v>842780.2675087613</v>
+        <v>874284.0611012022</v>
       </c>
       <c r="I15" t="n">
-        <v>723074013.3695641</v>
+        <v>820281699.371343</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -12289,22 +12289,22 @@
         <v>260</v>
       </c>
       <c r="D18" t="n">
-        <v>1251030.041683564</v>
+        <v>1399574.376047582</v>
       </c>
       <c r="E18" t="n">
-        <v>3148822.758316436</v>
+        <v>3149664.023952418</v>
       </c>
       <c r="F18" t="n">
         <v>142350</v>
       </c>
       <c r="G18" t="n">
-        <v>9108772.540389597</v>
+        <v>9647171.140039412</v>
       </c>
       <c r="H18" t="n">
-        <v>1023600.250793181</v>
+        <v>1052993.77720513</v>
       </c>
       <c r="I18" t="n">
-        <v>608475603.0030403</v>
+        <v>673128134.0654495</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -12347,22 +12347,22 @@
         <v>200</v>
       </c>
       <c r="D20" t="n">
-        <v>3844470.767477129</v>
+        <v>4667531.276552193</v>
       </c>
       <c r="E20" t="n">
-        <v>4849260.432522872</v>
+        <v>4852289.523447806</v>
       </c>
       <c r="F20" t="n">
         <v>109500</v>
       </c>
       <c r="G20" t="n">
-        <v>14457352.45963385</v>
+        <v>16751894.10602004</v>
       </c>
       <c r="H20" t="n">
-        <v>1073463.280404032</v>
+        <v>1134825.617184942</v>
       </c>
       <c r="I20" t="n">
-        <v>1362749244.861751</v>
+        <v>1638284740.614271</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -12405,22 +12405,22 @@
         <v>208</v>
       </c>
       <c r="D22" t="n">
-        <v>1052880.964490726</v>
+        <v>1532383.444452689</v>
       </c>
       <c r="E22" t="n">
-        <v>241794.2355092746</v>
+        <v>242368.5555473119</v>
       </c>
       <c r="F22" t="n">
         <v>113880</v>
       </c>
       <c r="G22" t="n">
-        <v>6318243.690255558</v>
+        <v>7708317.709941179</v>
       </c>
       <c r="H22" t="n">
-        <v>759334.5974795937</v>
+        <v>841896.7507371794</v>
       </c>
       <c r="I22" t="n">
-        <v>370447131.4557799</v>
+        <v>537371420.9974444</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -12463,22 +12463,22 @@
         <v>98</v>
       </c>
       <c r="D24" t="n">
-        <v>3851308.599522157</v>
+        <v>4007990.406293393</v>
       </c>
       <c r="E24" t="n">
-        <v>3439219.400477845</v>
+        <v>3439583.993706608</v>
       </c>
       <c r="F24" t="n">
         <v>53655</v>
       </c>
       <c r="G24" t="n">
-        <v>7003315.107309912</v>
+        <v>7217333.614066998</v>
       </c>
       <c r="H24" t="n">
-        <v>523692.038254705</v>
+        <v>529751.9318136696</v>
       </c>
       <c r="I24" t="n">
-        <v>658045911.0586305</v>
+        <v>683745900.1838671</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -12712,22 +12712,22 @@
         <v>228</v>
       </c>
       <c r="D33" t="n">
-        <v>10419604.20700068</v>
+        <v>11655937.7154124</v>
       </c>
       <c r="E33" t="n">
-        <v>5888962.192999326</v>
+        <v>5892401.484587601</v>
       </c>
       <c r="F33" t="n">
         <v>124830</v>
       </c>
       <c r="G33" t="n">
-        <v>37528896.37732789</v>
+        <v>41457936.05150444</v>
       </c>
       <c r="H33" t="n">
-        <v>1648576.880831266</v>
+        <v>1706803.473621392</v>
       </c>
       <c r="I33" t="n">
-        <v>4080983301.574819</v>
+        <v>4552794260.491426</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -12799,22 +12799,22 @@
         <v>340</v>
       </c>
       <c r="D36" t="n">
-        <v>2738425.432808718</v>
+        <v>3334274.596758654</v>
       </c>
       <c r="E36" t="n">
-        <v>1697177.767191283</v>
+        <v>1698871.003241346</v>
       </c>
       <c r="F36" t="n">
         <v>186150</v>
       </c>
       <c r="G36" t="n">
-        <v>18637542.73979649</v>
+        <v>21461332.73482217</v>
       </c>
       <c r="H36" t="n">
-        <v>1636049.538367914</v>
+        <v>1731369.84887811</v>
       </c>
       <c r="I36" t="n">
-        <v>1603385794.271014</v>
+        <v>1942475031.289575</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -12828,22 +12828,22 @@
         <v>158</v>
       </c>
       <c r="D37" t="n">
-        <v>3142170.267005216</v>
+        <v>3819384.489155989</v>
       </c>
       <c r="E37" t="n">
-        <v>4825061.732994784</v>
+        <v>4827105.11084401</v>
       </c>
       <c r="F37" t="n">
         <v>86505</v>
       </c>
       <c r="G37" t="n">
-        <v>9872352.017831376</v>
+        <v>11363785.43454741</v>
       </c>
       <c r="H37" t="n">
-        <v>801358.0259464616</v>
+        <v>846399.0750143443</v>
       </c>
       <c r="I37" t="n">
-        <v>890568534.4408861</v>
+        <v>1069664366.719174</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -12874,22 +12874,22 @@
         <v>115</v>
       </c>
       <c r="D39" t="n">
-        <v>13454952.2646872</v>
+        <v>13637554.76627573</v>
       </c>
       <c r="E39" t="n">
-        <v>4966718.135312809</v>
+        <v>5067565.233724272</v>
       </c>
       <c r="F39" t="n">
         <v>62962.49999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>23724683.47335122</v>
+        <v>24024907.95959205</v>
       </c>
       <c r="H39" t="n">
-        <v>899440.0588086842</v>
+        <v>903363.8928040945</v>
       </c>
       <c r="I39" t="n">
-        <v>2634265028.557497</v>
+        <v>2670316892.241775</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -12932,22 +12932,22 @@
         <v>117</v>
       </c>
       <c r="D41" t="n">
-        <v>3613599.417335943</v>
+        <v>3796201.91892448</v>
       </c>
       <c r="E41" t="n">
-        <v>3041082.182664056</v>
+        <v>3141929.281075519</v>
       </c>
       <c r="F41" t="n">
         <v>64057.49999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>7943112.201376677</v>
+        <v>8248557.983030394</v>
       </c>
       <c r="H41" t="n">
-        <v>612988.7115841279</v>
+        <v>621980.1911744695</v>
       </c>
       <c r="I41" t="n">
-        <v>735432919.8213443</v>
+        <v>772111772.4392619</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -12961,22 +12961,22 @@
         <v>116</v>
       </c>
       <c r="D42" t="n">
-        <v>4712313.719774811</v>
+        <v>4868995.526546047</v>
       </c>
       <c r="E42" t="n">
-        <v>3713289.48022519</v>
+        <v>3713654.073453953</v>
       </c>
       <c r="F42" t="n">
         <v>63509.99999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>9702322.150198791</v>
+        <v>9955650.178605137</v>
       </c>
       <c r="H42" t="n">
-        <v>657850.8592250509</v>
+        <v>664189.1829977526</v>
       </c>
       <c r="I42" t="n">
-        <v>948550834.0497578</v>
+        <v>978971229.3408542</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -12990,22 +12990,22 @@
         <v>172</v>
       </c>
       <c r="D43" t="n">
-        <v>1476533.783713239</v>
+        <v>1651243.219506091</v>
       </c>
       <c r="E43" t="n">
-        <v>1377114.216286761</v>
+        <v>1377326.38049391</v>
       </c>
       <c r="F43" t="n">
         <v>94170</v>
       </c>
       <c r="G43" t="n">
-        <v>6367606.324766733</v>
+        <v>6786427.740220081</v>
       </c>
       <c r="H43" t="n">
-        <v>695835.3645484038</v>
+        <v>717266.7123404208</v>
       </c>
       <c r="I43" t="n">
-        <v>443574745.7978897</v>
+        <v>493868087.1806712</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -13019,22 +13019,22 @@
         <v>172</v>
       </c>
       <c r="D44" t="n">
-        <v>2851599.435490677</v>
+        <v>3463377.099440613</v>
       </c>
       <c r="E44" t="n">
-        <v>733654.9645093237</v>
+        <v>852206.9005593874</v>
       </c>
       <c r="F44" t="n">
         <v>94170</v>
       </c>
       <c r="G44" t="n">
-        <v>9591604.318985851</v>
+        <v>11071401.66782787</v>
       </c>
       <c r="H44" t="n">
-        <v>833469.9476256571</v>
+        <v>882631.0260256043</v>
       </c>
       <c r="I44" t="n">
-        <v>830722168.918918</v>
+        <v>1008420706.998896</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -13106,22 +13106,22 @@
         <v>64</v>
       </c>
       <c r="D47" t="n">
-        <v>1177878.979155538</v>
+        <v>1395458.083157563</v>
       </c>
       <c r="E47" t="n">
-        <v>1177817.020844463</v>
+        <v>1178570.716842437</v>
       </c>
       <c r="F47" t="n">
         <v>35040</v>
       </c>
       <c r="G47" t="n">
-        <v>2094638.331192425</v>
+        <v>2288738.962372609</v>
       </c>
       <c r="H47" t="n">
-        <v>243298.8813701457</v>
+        <v>254560.3002785987</v>
       </c>
       <c r="I47" t="n">
-        <v>132063834.8242606</v>
+        <v>155372025.251896</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -13135,22 +13135,22 @@
         <v>101</v>
       </c>
       <c r="D48" t="n">
-        <v>2858396.627810193</v>
+        <v>3329880.839485146</v>
       </c>
       <c r="E48" t="n">
-        <v>4595561.772189807</v>
+        <v>4596493.560514854</v>
       </c>
       <c r="F48" t="n">
         <v>55297.5</v>
       </c>
       <c r="G48" t="n">
-        <v>5896247.962491692</v>
+        <v>6559972.822244569</v>
       </c>
       <c r="H48" t="n">
-        <v>498577.4539356001</v>
+        <v>520118.7487797083</v>
       </c>
       <c r="I48" t="n">
-        <v>519505942.3902756</v>
+        <v>599208029.5427616</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -13222,22 +13222,22 @@
         <v>56</v>
       </c>
       <c r="D51" t="n">
-        <v>3826203.665847545</v>
+        <v>5670995.646524156</v>
       </c>
       <c r="E51" t="n">
-        <v>5873645.934152454</v>
+        <v>5969589.953475845</v>
       </c>
       <c r="F51" t="n">
         <v>30660</v>
       </c>
       <c r="G51" t="n">
-        <v>4071217.157456907</v>
+        <v>5514497.094806703</v>
       </c>
       <c r="H51" t="n">
-        <v>301225.8528887465</v>
+        <v>337269.6975149637</v>
       </c>
       <c r="I51" t="n">
-        <v>384350727.4823807</v>
+        <v>557664144.4228246</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -13280,22 +13280,22 @@
         <v>110</v>
       </c>
       <c r="D53" t="n">
-        <v>3612850.415095141</v>
+        <v>3854096.374748113</v>
       </c>
       <c r="E53" t="n">
-        <v>682304.7849048598</v>
+        <v>798562.8252518879</v>
       </c>
       <c r="F53" t="n">
         <v>60225.00000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>7297505.875147836</v>
+        <v>7675685.247117069</v>
       </c>
       <c r="H53" t="n">
-        <v>571170.5889484567</v>
+        <v>582457.4472836081</v>
       </c>
       <c r="I53" t="n">
-        <v>670973227.6012188</v>
+        <v>716386149.568895</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -13367,22 +13367,22 @@
         <v>123</v>
       </c>
       <c r="D56" t="n">
-        <v>4137453.564076729</v>
+        <v>4294135.370847966</v>
       </c>
       <c r="E56" t="n">
-        <v>2540210.435923273</v>
+        <v>2540575.029152036</v>
       </c>
       <c r="F56" t="n">
         <v>67342.5</v>
       </c>
       <c r="G56" t="n">
-        <v>9208266.700208986</v>
+        <v>9476881.764812268</v>
       </c>
       <c r="H56" t="n">
-        <v>669054.4861483908</v>
+        <v>676383.6355714389</v>
       </c>
       <c r="I56" t="n">
-        <v>876156495.751341</v>
+        <v>908412604.5513829</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -13396,22 +13396,22 @@
         <v>150</v>
       </c>
       <c r="D57" t="n">
-        <v>6578141.696270506</v>
+        <v>6900503.323796358</v>
       </c>
       <c r="E57" t="n">
-        <v>374034.3037294951</v>
+        <v>374703.0762036431</v>
       </c>
       <c r="F57" t="n">
         <v>82125</v>
       </c>
       <c r="G57" t="n">
-        <v>16119933.50066137</v>
+        <v>16793896.65325966</v>
       </c>
       <c r="H57" t="n">
-        <v>932486.2042729135</v>
+        <v>946340.8875107178</v>
       </c>
       <c r="I57" t="n">
-        <v>1655730334.464728</v>
+        <v>1736661866.765557</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -13454,22 +13454,22 @@
         <v>109</v>
       </c>
       <c r="D59" t="n">
-        <v>2270510.522550711</v>
+        <v>4255064.378878362</v>
       </c>
       <c r="E59" t="n">
-        <v>4220740.67744929</v>
+        <v>4317370.821121639</v>
       </c>
       <c r="F59" t="n">
         <v>59677.50000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>5443573.837943383</v>
+        <v>8465175.955871487</v>
       </c>
       <c r="H59" t="n">
-        <v>504579.9162784284</v>
+        <v>601197.3504942927</v>
       </c>
       <c r="I59" t="n">
-        <v>450214132.0520915</v>
+        <v>813057246.6416353</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -13483,22 +13483,22 @@
         <v>102</v>
       </c>
       <c r="D60" t="n">
-        <v>5131988.428726745</v>
+        <v>5469616.870726015</v>
       </c>
       <c r="E60" t="n">
-        <v>3689422.771273258</v>
+        <v>3690146.329273988</v>
       </c>
       <c r="F60" t="n">
         <v>55845</v>
       </c>
       <c r="G60" t="n">
-        <v>9126349.505867165</v>
+        <v>9606350.505674826</v>
       </c>
       <c r="H60" t="n">
-        <v>593100.4150651713</v>
+        <v>604386.3139092071</v>
       </c>
       <c r="I60" t="n">
-        <v>905519631.4742517</v>
+        <v>963159602.2509902</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -13512,22 +13512,22 @@
         <v>82</v>
       </c>
       <c r="D61" t="n">
-        <v>3979824.060526871</v>
+        <v>4664405.981856562</v>
       </c>
       <c r="E61" t="n">
-        <v>3274953.539473131</v>
+        <v>3276013.218143439</v>
       </c>
       <c r="F61" t="n">
         <v>44895</v>
       </c>
       <c r="G61" t="n">
-        <v>5997999.908016693</v>
+        <v>6780402.226990147</v>
       </c>
       <c r="H61" t="n">
-        <v>442111.9949546023</v>
+        <v>463048.7702765433</v>
       </c>
       <c r="I61" t="n">
-        <v>567191290.2032055</v>
+        <v>661144525.3409512</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -13558,22 +13558,22 @@
         <v>148</v>
       </c>
       <c r="D63" t="n">
-        <v>1949666.799053879</v>
+        <v>2162854.817776447</v>
       </c>
       <c r="E63" t="n">
-        <v>3979792.400946123</v>
+        <v>3979829.982223555</v>
       </c>
       <c r="F63" t="n">
         <v>81030</v>
       </c>
       <c r="G63" t="n">
-        <v>6706234.554996391</v>
+        <v>7145965.959288494</v>
       </c>
       <c r="H63" t="n">
-        <v>657054.8726947184</v>
+        <v>675364.5494374705</v>
       </c>
       <c r="I63" t="n">
-        <v>529038247.1290063</v>
+        <v>581842523.1683631</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -13645,22 +13645,22 @@
         <v>100</v>
       </c>
       <c r="D66" t="n">
-        <v>1738319.033175265</v>
+        <v>2025700.845759932</v>
       </c>
       <c r="E66" t="n">
-        <v>2369146.566824736</v>
+        <v>2370321.554240068</v>
       </c>
       <c r="F66" t="n">
         <v>54750</v>
       </c>
       <c r="G66" t="n">
-        <v>4131641.021299009</v>
+        <v>4532232.550387053</v>
       </c>
       <c r="H66" t="n">
-        <v>425994.1456751716</v>
+        <v>443998.6347309715</v>
       </c>
       <c r="I66" t="n">
-        <v>309473274.3398637</v>
+        <v>357577515.8712273</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -13836,22 +13836,22 @@
         <v>240</v>
       </c>
       <c r="D73" t="n">
-        <v>3484992.76279058</v>
+        <v>3641674.569561816</v>
       </c>
       <c r="E73" t="n">
-        <v>963378.4372094206</v>
+        <v>963743.0304381842</v>
       </c>
       <c r="F73" t="n">
         <v>131400</v>
       </c>
       <c r="G73" t="n">
-        <v>15538169.64202989</v>
+        <v>16062296.59735337</v>
       </c>
       <c r="H73" t="n">
-        <v>1234375.817288832</v>
+        <v>1250456.344525775</v>
       </c>
       <c r="I73" t="n">
-        <v>1417870372.039822</v>
+        <v>1480809120.917953</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -13865,22 +13865,22 @@
         <v>94</v>
       </c>
       <c r="D74" t="n">
-        <v>3826203.665847545</v>
+        <v>5670995.646524156</v>
       </c>
       <c r="E74" t="n">
-        <v>5873645.934152454</v>
+        <v>5969589.953475845</v>
       </c>
       <c r="F74" t="n">
         <v>51465</v>
       </c>
       <c r="G74" t="n">
-        <v>6833828.800016951</v>
+        <v>9256477.26628268</v>
       </c>
       <c r="H74" t="n">
-        <v>505629.1102061102</v>
+        <v>566131.2779715464</v>
       </c>
       <c r="I74" t="n">
-        <v>645160149.7025677</v>
+        <v>936079099.566884</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -13923,22 +13923,22 @@
         <v>301</v>
       </c>
       <c r="D76" t="n">
-        <v>1990890.190578352</v>
+        <v>2259543.832061166</v>
       </c>
       <c r="E76" t="n">
-        <v>4127535.409421649</v>
+        <v>4128286.567938835</v>
       </c>
       <c r="F76" t="n">
         <v>164797.5</v>
       </c>
       <c r="G76" t="n">
-        <v>13840965.5334481</v>
+        <v>14968099.2522384</v>
       </c>
       <c r="H76" t="n">
-        <v>1344917.637451186</v>
+        <v>1390865.418014974</v>
       </c>
       <c r="I76" t="n">
-        <v>1100198306.509372</v>
+        <v>1235547930.028037</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -14010,22 +14010,22 @@
         <v>175</v>
       </c>
       <c r="D79" t="n">
-        <v>2104688.136760756</v>
+        <v>2255153.923744892</v>
       </c>
       <c r="E79" t="n">
-        <v>1553343.863239245</v>
+        <v>1553540.476255108</v>
       </c>
       <c r="F79" t="n">
         <v>95812.5</v>
       </c>
       <c r="G79" t="n">
-        <v>8030801.68614874</v>
+        <v>8397798.047048476</v>
       </c>
       <c r="H79" t="n">
-        <v>781239.345560924</v>
+        <v>796473.2566371078</v>
       </c>
       <c r="I79" t="n">
-        <v>637696271.5123776</v>
+        <v>681766303.7121158</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -14126,22 +14126,22 @@
         <v>95</v>
       </c>
       <c r="D83" t="n">
-        <v>2589513.391426134</v>
+        <v>3201291.055376071</v>
       </c>
       <c r="E83" t="n">
-        <v>848909.0085738664</v>
+        <v>967460.9446239301</v>
       </c>
       <c r="F83" t="n">
         <v>52012.5</v>
       </c>
       <c r="G83" t="n">
-        <v>4957831.763063053</v>
+        <v>5775161.694109519</v>
       </c>
       <c r="H83" t="n">
-        <v>447955.3439039594</v>
+        <v>476614.5368909492</v>
       </c>
       <c r="I83" t="n">
-        <v>418018088.9625558</v>
+        <v>516165537.3206831</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -14213,22 +14213,22 @@
         <v>82.59999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>3910492.859748871</v>
+        <v>5244188.144234708</v>
       </c>
       <c r="E86" t="n">
-        <v>3502607.940251131</v>
+        <v>3504445.455765293</v>
       </c>
       <c r="F86" t="n">
         <v>45223.5</v>
       </c>
       <c r="G86" t="n">
-        <v>5974340.26825041</v>
+        <v>7509749.174633053</v>
       </c>
       <c r="H86" t="n">
-        <v>443438.3908948631</v>
+        <v>483136.0864455949</v>
       </c>
       <c r="I86" t="n">
-        <v>563230169.1529095</v>
+        <v>747606711.13866</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -14271,22 +14271,22 @@
         <v>97.7</v>
       </c>
       <c r="D88" t="n">
-        <v>1495945.523371612</v>
+        <v>1783327.33595628</v>
       </c>
       <c r="E88" t="n">
-        <v>1780323.276628388</v>
+        <v>1781498.264043721</v>
       </c>
       <c r="F88" t="n">
         <v>53490.75</v>
       </c>
       <c r="G88" t="n">
-        <v>3669073.097629482</v>
+        <v>4060451.0215485</v>
       </c>
       <c r="H88" t="n">
-        <v>397991.2369218023</v>
+        <v>417316.1027717502</v>
       </c>
       <c r="I88" t="n">
-        <v>258220053.367577</v>
+        <v>305217897.3437193</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -14300,22 +14300,22 @@
         <v>134</v>
       </c>
       <c r="D89" t="n">
-        <v>1547157.970916226</v>
+        <v>1810155.068055429</v>
       </c>
       <c r="E89" t="n">
-        <v>1569510.829083775</v>
+        <v>1569534.531944572</v>
       </c>
       <c r="F89" t="n">
         <v>73365</v>
       </c>
       <c r="G89" t="n">
-        <v>5109516.368556292</v>
+        <v>5600669.566473575</v>
       </c>
       <c r="H89" t="n">
-        <v>549857.4400133137</v>
+        <v>573842.6063399204</v>
       </c>
       <c r="I89" t="n">
-        <v>363432834.8306161</v>
+        <v>422411995.2619439</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -14358,22 +14358,22 @@
         <v>100</v>
       </c>
       <c r="D91" t="n">
-        <v>3659164.735001117</v>
+        <v>3764054.735001117</v>
       </c>
       <c r="E91" t="n">
-        <v>2978918.464998882</v>
+        <v>3006815.664998882</v>
       </c>
       <c r="F91" t="n">
         <v>54750</v>
       </c>
       <c r="G91" t="n">
-        <v>6848433.266710172</v>
+        <v>6996434.641397437</v>
       </c>
       <c r="H91" t="n">
-        <v>525693.1643343393</v>
+        <v>530048.093734896</v>
       </c>
       <c r="I91" t="n">
-        <v>635713898.2025591</v>
+        <v>653486350.5835114</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -14387,22 +14387,22 @@
         <v>123</v>
       </c>
       <c r="D92" t="n">
-        <v>1067015.432280906</v>
+        <v>1769946.033502277</v>
       </c>
       <c r="E92" t="n">
-        <v>618360.5677190939</v>
+        <v>746626.7664977235</v>
       </c>
       <c r="F92" t="n">
         <v>67342.5</v>
       </c>
       <c r="G92" t="n">
-        <v>3790707.979123971</v>
+        <v>5005969.91205856</v>
       </c>
       <c r="H92" t="n">
-        <v>452659.9336887646</v>
+        <v>520366.1429299193</v>
       </c>
       <c r="I92" t="n">
-        <v>225599670.8911178</v>
+        <v>371531996.7164824</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -14474,22 +14474,22 @@
         <v>60</v>
       </c>
       <c r="D95" t="n">
-        <v>2270510.522550711</v>
+        <v>4255064.378878362</v>
       </c>
       <c r="E95" t="n">
-        <v>4220740.67744929</v>
+        <v>4317370.821121639</v>
       </c>
       <c r="F95" t="n">
         <v>32850</v>
       </c>
       <c r="G95" t="n">
-        <v>2996462.663088101</v>
+        <v>4659729.883965956</v>
       </c>
       <c r="H95" t="n">
-        <v>277750.4126303276</v>
+        <v>330934.3213730052</v>
       </c>
       <c r="I95" t="n">
-        <v>247824292.8727109</v>
+        <v>447554447.6926433</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -14503,22 +14503,22 @@
         <v>225</v>
       </c>
       <c r="D96" t="n">
-        <v>2684591.579029841</v>
+        <v>3280440.742979778</v>
       </c>
       <c r="E96" t="n">
-        <v>954288.4209701593</v>
+        <v>955981.657020223</v>
       </c>
       <c r="F96" t="n">
         <v>123187.5</v>
       </c>
       <c r="G96" t="n">
-        <v>12055839.30417568</v>
+        <v>13924523.85970738</v>
       </c>
       <c r="H96" t="n">
-        <v>1072590.846743144</v>
+        <v>1136853.786167547</v>
       </c>
       <c r="I96" t="n">
-        <v>1027701620.330354</v>
+        <v>1252098909.533813</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -14619,22 +14619,22 @@
         <v>161</v>
       </c>
       <c r="D100" t="n">
-        <v>1606194.912801307</v>
+        <v>1745717.48479656</v>
       </c>
       <c r="E100" t="n">
-        <v>3647837.087198694</v>
+        <v>3648762.515203441</v>
       </c>
       <c r="F100" t="n">
         <v>88147.5</v>
       </c>
       <c r="G100" t="n">
-        <v>6489753.602728097</v>
+        <v>6802912.336678631</v>
       </c>
       <c r="H100" t="n">
-        <v>678109.9772735671</v>
+        <v>692882.5488205135</v>
       </c>
       <c r="I100" t="n">
-        <v>478775893.4378022</v>
+        <v>516380940.6785832</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -14648,22 +14648,22 @@
         <v>69.5</v>
       </c>
       <c r="D101" t="n">
-        <v>4381877.874768318</v>
+        <v>5364853.323947283</v>
       </c>
       <c r="E101" t="n">
-        <v>2778416.525231682</v>
+        <v>2806666.676052717</v>
       </c>
       <c r="F101" t="n">
         <v>38051.25</v>
       </c>
       <c r="G101" t="n">
-        <v>5450591.993855734</v>
+        <v>6403981.987421282</v>
       </c>
       <c r="H101" t="n">
-        <v>384749.1379589608</v>
+        <v>408521.8158734435</v>
       </c>
       <c r="I101" t="n">
-        <v>524790226.7585398</v>
+        <v>639276178.6419173</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -14677,22 +14677,22 @@
         <v>141</v>
       </c>
       <c r="D102" t="n">
-        <v>1715734.958333104</v>
+        <v>2053363.400332374</v>
       </c>
       <c r="E102" t="n">
-        <v>1283468.241666896</v>
+        <v>1284191.799667626</v>
       </c>
       <c r="F102" t="n">
         <v>77197.5</v>
       </c>
       <c r="G102" t="n">
-        <v>5681391.922930226</v>
+        <v>6344922.716781994</v>
       </c>
       <c r="H102" t="n">
-        <v>593767.2447848745</v>
+        <v>624076.5392674441</v>
       </c>
       <c r="I102" t="n">
-        <v>419038713.1279246</v>
+        <v>498717496.2604749</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -14822,22 +14822,22 @@
         <v>142</v>
       </c>
       <c r="D107" t="n">
-        <v>10710607.0294158</v>
+        <v>13458568.4839868</v>
       </c>
       <c r="E107" t="n">
-        <v>1563271.370584205</v>
+        <v>1565537.116013206</v>
       </c>
       <c r="F107" t="n">
         <v>77745</v>
       </c>
       <c r="G107" t="n">
-        <v>23548530.99540818</v>
+        <v>28986980.86501012</v>
       </c>
       <c r="H107" t="n">
-        <v>1029428.577791332</v>
+        <v>1106557.456352779</v>
       </c>
       <c r="I107" t="n">
-        <v>2562712106.61576</v>
+        <v>3215777603.729772</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -14851,22 +14851,22 @@
         <v>74</v>
       </c>
       <c r="D108" t="n">
-        <v>12524739.02506587</v>
+        <v>15692324.66203691</v>
       </c>
       <c r="E108" t="n">
-        <v>2270819.374934139</v>
+        <v>2273528.137963096</v>
       </c>
       <c r="F108" t="n">
         <v>40515</v>
       </c>
       <c r="G108" t="n">
-        <v>14176859.65467852</v>
+        <v>17443767.29051892</v>
       </c>
       <c r="H108" t="n">
-        <v>564104.3150148722</v>
+        <v>606061.3372358675</v>
       </c>
       <c r="I108" t="n">
-        <v>1564266821.101823</v>
+        <v>1956566963.67569</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -14938,22 +14938,22 @@
         <v>60</v>
       </c>
       <c r="D111" t="n">
-        <v>2439066.35527127</v>
+        <v>3453309.835807942</v>
       </c>
       <c r="E111" t="n">
-        <v>1285359.24472873</v>
+        <v>1536424.564192058</v>
       </c>
       <c r="F111" t="n">
         <v>32850</v>
       </c>
       <c r="G111" t="n">
-        <v>3022537.965584288</v>
+        <v>3880474.318981996</v>
       </c>
       <c r="H111" t="n">
-        <v>278766.7970859242</v>
+        <v>308467.3314336735</v>
       </c>
       <c r="I111" t="n">
-        <v>250955494.0045359</v>
+        <v>353979084.2844744</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -14967,22 +14967,22 @@
         <v>221</v>
       </c>
       <c r="D112" t="n">
-        <v>4412400.784974163</v>
+        <v>4569082.5917454</v>
       </c>
       <c r="E112" t="n">
-        <v>4199615.215025837</v>
+        <v>4199979.808254601</v>
       </c>
       <c r="F112" t="n">
         <v>120997.5</v>
       </c>
       <c r="G112" t="n">
-        <v>17630962.17381926</v>
+        <v>18113595.74517962</v>
       </c>
       <c r="H112" t="n">
-        <v>1231340.849030701</v>
+        <v>1243867.647943754</v>
       </c>
       <c r="I112" t="n">
-        <v>1704645891.026487</v>
+        <v>1762601988.951765</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -15083,22 +15083,22 @@
         <v>166</v>
       </c>
       <c r="D116" t="n">
-        <v>3592327.227103019</v>
+        <v>3749009.033874256</v>
       </c>
       <c r="E116" t="n">
-        <v>4028891.972896982</v>
+        <v>4029256.566125745</v>
       </c>
       <c r="F116" t="n">
         <v>90885</v>
       </c>
       <c r="G116" t="n">
-        <v>11327450.81434746</v>
+        <v>11689971.95844619</v>
       </c>
       <c r="H116" t="n">
-        <v>871433.2262667348</v>
+        <v>882087.4434394463</v>
       </c>
       <c r="I116" t="n">
-        <v>1050367862.377138</v>
+        <v>1093900497.017845</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -15141,22 +15141,22 @@
         <v>60</v>
       </c>
       <c r="D118" t="n">
-        <v>9029825.997492969</v>
+        <v>9517470.941080775</v>
       </c>
       <c r="E118" t="n">
-        <v>4259108.402507033</v>
+        <v>4260477.858919226</v>
       </c>
       <c r="F118" t="n">
         <v>32850</v>
       </c>
       <c r="G118" t="n">
-        <v>8650109.943505546</v>
+        <v>9057932.685711827</v>
       </c>
       <c r="H118" t="n">
-        <v>414132.1141691745</v>
+        <v>420894.421910569</v>
       </c>
       <c r="I118" t="n">
-        <v>926731345.4743271</v>
+        <v>975703932.9320171</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -15257,22 +15257,22 @@
         <v>93</v>
       </c>
       <c r="D122" t="n">
-        <v>2593224.494333939</v>
+        <v>3529923.283733908</v>
       </c>
       <c r="E122" t="n">
-        <v>1427418.705666062</v>
+        <v>1623241.516266092</v>
       </c>
       <c r="F122" t="n">
         <v>50917.5</v>
       </c>
       <c r="G122" t="n">
-        <v>4893356.824147179</v>
+        <v>6119300.785755811</v>
       </c>
       <c r="H122" t="n">
-        <v>440018.5122906762</v>
+        <v>481356.9410024049</v>
       </c>
       <c r="I122" t="n">
-        <v>414009076.7665421</v>
+        <v>561224132.8796662</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -15402,22 +15402,22 @@
         <v>195</v>
       </c>
       <c r="D127" t="n">
-        <v>2871658.34747996</v>
+        <v>2976548.34747996</v>
       </c>
       <c r="E127" t="n">
-        <v>4264376.852520041</v>
+        <v>4292274.052520041</v>
       </c>
       <c r="F127" t="n">
         <v>106762.5</v>
       </c>
       <c r="G127" t="n">
-        <v>11377764.63356011</v>
+        <v>11666367.31420028</v>
       </c>
       <c r="H127" t="n">
-        <v>962393.2606786651</v>
+        <v>972103.1497988513</v>
       </c>
       <c r="I127" t="n">
-        <v>1002276364.519659</v>
+        <v>1036932646.662516</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -15460,10 +15460,10 @@
         <v>84.8</v>
       </c>
       <c r="D129" t="n">
-        <v>614070.5896622862</v>
+        <v>653683.0741781046</v>
       </c>
       <c r="E129" t="n">
-        <v>1995708.610337714</v>
+        <v>2088883.325821896</v>
       </c>
       <c r="F129" t="n">
         <v>46428</v>
@@ -15472,10 +15472,10 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>277366.3016868735</v>
+        <v>281838.3478969435</v>
       </c>
       <c r="I129" t="n">
-        <v>100402250.052982</v>
+        <v>106642796.053579</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -15489,22 +15489,22 @@
         <v>166</v>
       </c>
       <c r="D130" t="n">
-        <v>4579427.780027619</v>
+        <v>6547452.366325166</v>
       </c>
       <c r="E130" t="n">
-        <v>2305077.819972381</v>
+        <v>2450157.233674834</v>
       </c>
       <c r="F130" t="n">
         <v>90885</v>
       </c>
       <c r="G130" t="n">
-        <v>13424461.88629568</v>
+        <v>17993173.12384532</v>
       </c>
       <c r="H130" t="n">
-        <v>929629.2151680208</v>
+        <v>1035151.08784959</v>
       </c>
       <c r="I130" t="n">
-        <v>1302183289.749218</v>
+        <v>1850807943.292107</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -15634,22 +15634,22 @@
         <v>145</v>
       </c>
       <c r="D135" t="n">
-        <v>3355820.937063534</v>
+        <v>3710083.779062804</v>
       </c>
       <c r="E135" t="n">
-        <v>819315.0629364671</v>
+        <v>936191.4209371968</v>
       </c>
       <c r="F135" t="n">
         <v>79387.5</v>
       </c>
       <c r="G135" t="n">
-        <v>9112986.901942825</v>
+        <v>9839941.200684313</v>
       </c>
       <c r="H135" t="n">
-        <v>737115.9625642754</v>
+        <v>759564.6434924796</v>
       </c>
       <c r="I135" t="n">
-        <v>823648342.942196</v>
+        <v>910943212.2284559</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -15750,22 +15750,22 @@
         <v>90</v>
       </c>
       <c r="D139" t="n">
-        <v>6425548.219959726</v>
+        <v>7649769.628791664</v>
       </c>
       <c r="E139" t="n">
-        <v>2478854.980040275</v>
+        <v>2623363.171208337</v>
       </c>
       <c r="F139" t="n">
         <v>49275</v>
       </c>
       <c r="G139" t="n">
-        <v>9604114.844450027</v>
+        <v>11148140.07766997</v>
       </c>
       <c r="H139" t="n">
-        <v>558071.8360777932</v>
+        <v>588707.1079906637</v>
       </c>
       <c r="I139" t="n">
-        <v>985291137.2942178</v>
+        <v>1170702353.847946</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -57736,7 +57736,7 @@
         <v>3694</v>
       </c>
       <c r="B2" t="n">
-        <v>62403412627.93986</v>
+        <v>66829318913.71789</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -57744,7 +57744,7 @@
         <v>3695</v>
       </c>
       <c r="B3" t="n">
-        <v>547.5845368465751</v>
+        <v>586.421480878367</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -57776,7 +57776,7 @@
         <v>3697</v>
       </c>
       <c r="B1" t="n">
-        <v>0.02084323200249852</v>
+        <v>0.02098578272265617</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -57784,7 +57784,7 @@
         <v>3698</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001808180520645191</v>
+        <v>0.001763539974315568</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -57792,7 +57792,7 @@
         <v>3699</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002818229609042126</v>
+        <v>0.002748652867121982</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -57800,7 +57800,7 @@
         <v>3700</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002866002308505245</v>
+        <v>0.00283796900922771</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -57808,7 +57808,7 @@
         <v>3701</v>
       </c>
       <c r="B5" t="n">
-        <v>0.005052495360988223</v>
+        <v>0.005118513844262519</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -57816,7 +57816,7 @@
         <v>3702</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00829832420331773</v>
+        <v>0.008517107027728394</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -57824,7 +57824,7 @@
         <v>3703</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0182993588634116</v>
+        <v>0.01801215680997688</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -57832,7 +57832,7 @@
         <v>3704</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01999699185583783</v>
+        <v>0.01962335242942203</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -57840,7 +57840,7 @@
         <v>3705</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001813152402010476</v>
+        <v>0.0001693072731237646</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -57848,7 +57848,7 @@
         <v>3701</v>
       </c>
       <c r="B10" t="n">
-        <v>0.001516317752225177</v>
+        <v>0.001441888346321386</v>
       </c>
     </row>
   </sheetData>
